--- a/sputnik/personal/ee/95ee.xlsx
+++ b/sputnik/personal/ee/95ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,10 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>к доплате 25,39</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>Итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -132,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -164,6 +167,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -471,220 +475,261 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F17:F18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43295</v>
+        <v>43616</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>2072</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>2398</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>930</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>1104</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43358</v>
+        <v>43644</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
-        <v>2217</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
-        <v>145</v>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>652.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>657.58</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4,F5)</f>
+        <v>657.58</v>
+      </c>
+      <c r="H4" s="13">
+        <f>SUM(G4,G5)</f>
+        <v>657.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>1039</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>109</v>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>256.15000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43579</v>
+        <v>43677</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>2302</v>
+        <v>2683</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f>C6-C2</f>
+        <v>285</v>
       </c>
       <c r="E6" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>388.45000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>657.58</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(F6,F7)</f>
+        <v>779.08</v>
+      </c>
+      <c r="H6" s="13">
+        <v>753.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1053</v>
+        <v>1154</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>C7-C3</f>
+        <v>50</v>
       </c>
       <c r="E7" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>33.46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D7*E7</f>
+        <v>121.50000000000001</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43616</v>
+        <v>43738</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>2398</v>
+        <v>2812</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>C8-C6</f>
+        <v>129</v>
       </c>
       <c r="E8" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>438.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D8*E8</f>
+        <v>579.21</v>
+      </c>
+      <c r="G8" s="13">
+        <f>SUM(F8,F9)</f>
+        <v>620.52</v>
+      </c>
+      <c r="H8" s="13">
+        <f>SUM(G8,G9)</f>
+        <v>620.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1104</v>
+        <v>1171</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <f>C9-C7</f>
+        <v>17</v>
       </c>
       <c r="E9" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>121.89</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+        <f>D9*E9</f>
+        <v>41.31</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43644</v>
+        <v>43881</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
+      <c r="C10" s="3">
+        <v>2894</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10-C8</f>
+        <v>82</v>
       </c>
       <c r="E10" s="8">
-        <v>4.57</v>
+        <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <v>657.58</v>
+        <f>D10*E10</f>
+        <v>368.18</v>
+      </c>
+      <c r="G10" s="13">
+        <f>SUM(F10,F11)</f>
+        <v>475.1</v>
+      </c>
+      <c r="H10" s="13">
+        <f>SUM(G10,G11)</f>
+        <v>475.1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -692,39 +737,51 @@
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
+      <c r="C11" s="3">
+        <v>1215</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11-C9</f>
+        <v>44</v>
       </c>
       <c r="E11" s="3">
-        <v>2.39</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
         <f>D11*E11</f>
-        <v>0</v>
-      </c>
+        <v>106.92</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43677</v>
+        <v>43901</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>2683</v>
+        <v>3018</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C8</f>
-        <v>285</v>
+        <f>C12-C10</f>
+        <v>124</v>
       </c>
       <c r="E12" s="8">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <v>657.58</v>
+        <f>D12*E12</f>
+        <v>556.76</v>
+      </c>
+      <c r="G12" s="13">
+        <f>SUM(F12,F13)</f>
+        <v>741.44</v>
+      </c>
+      <c r="H12" s="13">
+        <f>SUM(G12,G13)</f>
+        <v>741.44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,161 +790,54 @@
         <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>1154</v>
+        <v>1291</v>
       </c>
       <c r="D13" s="3">
-        <f>C13-C9</f>
-        <v>50</v>
+        <f>C13-C11</f>
+        <v>76</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
         <f>D13*E13</f>
-        <v>121.50000000000001</v>
-      </c>
+        <v>184.68</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="6"/>
+      <c r="G14" s="13">
+        <f>SUM(G2:G13)</f>
+        <v>3273.7200000000003</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(H2:H13)</f>
+        <v>3248.33</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>43738</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2812</v>
-      </c>
-      <c r="D15" s="3">
-        <f>C15-C12</f>
-        <v>129</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F15" s="6">
-        <f>D15*E15</f>
-        <v>579.21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1171</v>
-      </c>
-      <c r="D16" s="3">
-        <f>C16-C13</f>
-        <v>17</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F16" s="6">
-        <f>D16*E16</f>
-        <v>41.31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>43881</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2894</v>
-      </c>
-      <c r="D17" s="3">
-        <f>C17-C15</f>
-        <v>82</v>
-      </c>
-      <c r="E17" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="6">
-        <f>D17*E17</f>
-        <v>368.18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1215</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C16</f>
-        <v>44</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18" s="6">
-        <f>D18*E18</f>
-        <v>106.92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <f>SUM(H14,-G14)</f>
+        <v>-25.390000000000327</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/95ee.xlsx
+++ b/sputnik/personal/ee/95ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -644,7 +644,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" ref="F7:F13" si="0">D7*E7</f>
         <v>121.50000000000001</v>
       </c>
       <c r="G7" s="2"/>
@@ -661,14 +661,14 @@
         <v>2812</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C6</f>
+        <f t="shared" ref="D8:D15" si="1">C8-C6</f>
         <v>129</v>
       </c>
       <c r="E8" s="8">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>579.21</v>
       </c>
       <c r="G8" s="13">
@@ -689,14 +689,14 @@
         <v>1171</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C7</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>41.31</v>
       </c>
       <c r="G9" s="2"/>
@@ -713,14 +713,14 @@
         <v>2894</v>
       </c>
       <c r="D10" s="3">
-        <f>C10-C8</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="E10" s="8">
         <v>4.49</v>
       </c>
       <c r="F10" s="6">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>368.18</v>
       </c>
       <c r="G10" s="13">
@@ -741,14 +741,14 @@
         <v>1215</v>
       </c>
       <c r="D11" s="3">
-        <f>C11-C9</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="6">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>106.92</v>
       </c>
       <c r="G11" s="2"/>
@@ -765,14 +765,14 @@
         <v>3018</v>
       </c>
       <c r="D12" s="3">
-        <f>C12-C10</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="E12" s="8">
         <v>4.49</v>
       </c>
       <c r="F12" s="6">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>556.76</v>
       </c>
       <c r="G12" s="13">
@@ -793,49 +793,101 @@
         <v>1291</v>
       </c>
       <c r="D13" s="3">
-        <f>C13-C11</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>184.68</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6" t="s">
+      <c r="A14" s="4">
+        <v>43965</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3331</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>313</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="2">D14*E14</f>
+        <v>1405.3700000000001</v>
+      </c>
+      <c r="G14" s="13">
+        <f>SUM(F14,F15)</f>
+        <v>2059.04</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(G14,G15)</f>
+        <v>2059.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1560</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="2"/>
+        <v>653.67000000000007</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="13">
-        <f>SUM(G2:G13)</f>
-        <v>3273.7200000000003</v>
-      </c>
-      <c r="H14" s="13">
-        <f>SUM(H2:H13)</f>
-        <v>3248.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6" t="s">
+      <c r="G16" s="13">
+        <f>SUM(G2:G15)</f>
+        <v>5332.76</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(H2:H15)</f>
+        <v>5307.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <f>SUM(H14,-G14)</f>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <f>SUM(H16,-G16)</f>
         <v>-25.390000000000327</v>
       </c>
     </row>

--- a/sputnik/personal/ee/95ee.xlsx
+++ b/sputnik/personal/ee/95ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -859,35 +859,87 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6" t="s">
+      <c r="A16" s="4">
+        <v>44012</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3544</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="3">C16-C14</f>
+        <v>213</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="4">D16*E16</f>
+        <v>956.37</v>
+      </c>
+      <c r="G16" s="13">
+        <f>SUM(F16,F17)</f>
+        <v>1051.1400000000001</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(G16,G17)</f>
+        <v>1051.1400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1599</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="4"/>
+        <v>94.77000000000001</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="13">
-        <f>SUM(G2:G15)</f>
-        <v>5332.76</v>
-      </c>
-      <c r="H16" s="13">
-        <f>SUM(H2:H15)</f>
-        <v>5307.37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="6" t="s">
+      <c r="G18" s="13">
+        <f>SUM(G2:G17)</f>
+        <v>6383.9000000000005</v>
+      </c>
+      <c r="H18" s="13">
+        <f>SUM(H2:H17)</f>
+        <v>6358.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <f>SUM(H16,-G16)</f>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <f>SUM(H18,-G18)</f>
         <v>-25.390000000000327</v>
       </c>
     </row>

--- a/sputnik/personal/ee/95ee.xlsx
+++ b/sputnik/personal/ee/95ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -475,10 +475,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -911,35 +911,87 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6" t="s">
+      <c r="A18" s="4">
+        <v>44104</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3621</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="5">C18-C16</f>
+        <v>77</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="6">D18*E18</f>
+        <v>362.67</v>
+      </c>
+      <c r="G18" s="13">
+        <f>SUM(F18,F19)</f>
+        <v>398.37</v>
+      </c>
+      <c r="H18" s="13">
+        <f>SUM(G18,G19)</f>
+        <v>398.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1613</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="6"/>
+        <v>35.699999999999996</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G20" s="13">
         <f>SUM(G2:G17)</f>
         <v>6383.9000000000005</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H20" s="13">
         <f>SUM(H2:H17)</f>
         <v>6358.51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <f>SUM(H18,-G18)</f>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <f>SUM(H20,-G20)</f>
         <v>-25.390000000000327</v>
       </c>
     </row>

--- a/sputnik/personal/ee/95ee.xlsx
+++ b/sputnik/personal/ee/95ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -100,12 +100,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -168,6 +174,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -475,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,11 +627,11 @@
       <c r="F6" s="6">
         <v>657.58</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="14">
         <f>SUM(F6,F7)</f>
         <v>779.08</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <v>753.69</v>
       </c>
     </row>
@@ -963,35 +970,87 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="4">
+        <v>44208</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3824</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="7">C20-C18</f>
+        <v>203</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="8">D20*E20</f>
+        <v>956.13</v>
+      </c>
+      <c r="G20" s="13">
+        <f>SUM(F20,F21)</f>
+        <v>1285.08</v>
+      </c>
+      <c r="H20" s="13">
+        <f>SUM(G20,G21)</f>
+        <v>1285.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1742</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="8"/>
+        <v>328.95</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G22" s="13">
         <f>SUM(G2:G17)</f>
         <v>6383.9000000000005</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H22" s="13">
         <f>SUM(H2:H17)</f>
         <v>6358.51</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <f>SUM(H20,-G20)</f>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <f>SUM(H22,-G22)</f>
         <v>-25.390000000000327</v>
       </c>
     </row>

--- a/sputnik/personal/ee/95ee.xlsx
+++ b/sputnik/personal/ee/95ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:H6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1022,36 +1022,88 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6" t="s">
+      <c r="A22" s="4">
+        <v>44375</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4070</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="9">C22-C20</f>
+        <v>246</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="10">D22*E22</f>
+        <v>1158.6600000000001</v>
+      </c>
+      <c r="G22" s="13">
+        <f>SUM(F22,F23)</f>
+        <v>1298.9100000000001</v>
+      </c>
+      <c r="H22" s="13">
+        <f>SUM(G22,G23)</f>
+        <v>1298.9100000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1797</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="10"/>
+        <v>140.25</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="13">
-        <f>SUM(G2:G17)</f>
-        <v>6383.9000000000005</v>
-      </c>
-      <c r="H22" s="13">
-        <f>SUM(H2:H17)</f>
-        <v>6358.51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="6" t="s">
+      <c r="G24" s="13">
+        <f>SUM(G2:G23)</f>
+        <v>9366.26</v>
+      </c>
+      <c r="H24" s="13">
+        <f>SUM(H2:H23)</f>
+        <v>9340.8700000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <f>SUM(H22,-G22)</f>
-        <v>-25.390000000000327</v>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <f>SUM(H24,-G24)</f>
+        <v>-25.389999999999418</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/95ee.xlsx
+++ b/sputnik/personal/ee/95ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1074,35 +1074,87 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="6" t="s">
+      <c r="A24" s="4">
+        <v>44447</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4391</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="11">C24-C22</f>
+        <v>321</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="12">D24*E24</f>
+        <v>1592.16</v>
+      </c>
+      <c r="G24" s="13">
+        <f>SUM(F24,F25)</f>
+        <v>1696.68</v>
+      </c>
+      <c r="H24" s="13">
+        <f>SUM(G24,G25)</f>
+        <v>1696.68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1836</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="12"/>
+        <v>104.52000000000001</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G26" s="13">
         <f>SUM(G2:G23)</f>
         <v>9366.26</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H26" s="13">
         <f>SUM(H2:H23)</f>
         <v>9340.8700000000008</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="6" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <f>SUM(H24,-G24)</f>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <f>SUM(H26,-G26)</f>
         <v>-25.389999999999418</v>
       </c>
     </row>

--- a/sputnik/personal/ee/95ee.xlsx
+++ b/sputnik/personal/ee/95ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -482,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1126,35 +1126,87 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="6" t="s">
+      <c r="A26" s="4">
+        <v>44509</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4590</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="13">C26-C24</f>
+        <v>199</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" ref="F26:F27" si="14">D26*E26</f>
+        <v>987.04</v>
+      </c>
+      <c r="G26" s="13">
+        <f>SUM(F26,F27)</f>
+        <v>1247</v>
+      </c>
+      <c r="H26" s="13">
+        <f>SUM(G26,G27)</f>
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1933</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="13"/>
+        <v>97</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="14"/>
+        <v>259.96000000000004</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="13">
-        <f>SUM(G2:G23)</f>
-        <v>9366.26</v>
-      </c>
-      <c r="H26" s="13">
-        <f>SUM(H2:H23)</f>
-        <v>9340.8700000000008</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="6" t="s">
+      <c r="G28" s="13">
+        <f>SUM(G2:G27)</f>
+        <v>12309.94</v>
+      </c>
+      <c r="H28" s="13">
+        <f>SUM(H2:H27)</f>
+        <v>12284.550000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2">
-        <f>SUM(H26,-G26)</f>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
+        <f>SUM(H28,-G28)</f>
         <v>-25.389999999999418</v>
       </c>
     </row>
